--- a/images/MSConvert.xlsx
+++ b/images/MSConvert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\SSANTA_bookdown\WBS-TW.github.io\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E09CA7-6BCE-4F07-8064-C056FD6BF38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B79C3-8106-4FE7-B5B4-5324FDF4A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,10 +81,10 @@
     <t>Docker: use vendor centroiding for msLevels in [1,2]</t>
   </si>
   <si>
-    <t>http://proteowizard.sourceforge.net/tools.shtml</t>
-  </si>
-  <si>
     <t>Website</t>
+  </si>
+  <si>
+    <t>https://proteowizard.sourceforge.io/tools/msconvert.html</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="8"/>
     </row>
